--- a/biology/Botanique/Araucaria_schmidii/Araucaria_schmidii.xlsx
+++ b/biology/Botanique/Araucaria_schmidii/Araucaria_schmidii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Araucaria schmidii est un conifère du genre Araucaria, endémique de Nouvelle-Calédonie.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hauteur 20 à 30 mètres.
 5 à 7 branches par pseudo-verticilles
-Port colonnaire, cyme tabulaire pour les individus âgés[2],[3]</t>
+Port colonnaire, cyme tabulaire pour les individus âgés,</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Observé uniquement dans le massif du mont Panié et du mont Colnett au nord-est de la Nouvelle-Calédonie, entre 1 300 et 1 600 m d’altitude.
 Confiné dans une zone protégée et inaccessible.
